--- a/src/components/Assests/data/CRTDH-Equipments.xlsx
+++ b/src/components/Assests/data/CRTDH-Equipments.xlsx
@@ -5,28 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vrajs\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vrajs\Desktop\CRTDH\src\components\Assests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95DDB323-DF46-4FB7-B48F-A27B5F1496B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856D6F64-77A3-4176-B57B-59F4674CFD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="oHpIsg3M5BQxveq6A2qvfgmzhOrQc9bxfLNf7JddSoA="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataChecksum="o+pSgVT34544J5rEU8VjgUOpbMftnpyIdD+GgTeLgP4="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="598">
   <si>
     <t>Ser. No</t>
   </si>
@@ -466,15 +467,24 @@
     <t xml:space="preserve">Rapid Prototyping </t>
   </si>
   <si>
+    <t>Arbitrary Waveform Generator, DC Power Supply | Multimeter, Spectrum Analyzer, Multifunction Lux meter</t>
+  </si>
+  <si>
     <t>Testing of electronic equipment</t>
   </si>
   <si>
-    <t>Elanpro Refrigerator</t>
+    <t>Refrigerator</t>
+  </si>
+  <si>
+    <t>Storage of reagents</t>
   </si>
   <si>
     <t>Stericox</t>
   </si>
   <si>
+    <t>R&amp;D</t>
+  </si>
+  <si>
     <t>Nanodrop one</t>
   </si>
   <si>
@@ -490,12 +500,18 @@
     <t>Blood Tube Package</t>
   </si>
   <si>
+    <t>Validation of process</t>
+  </si>
+  <si>
     <t>High Speed Guillotine Cutter</t>
   </si>
   <si>
     <t>Werfen Automation Equipment</t>
   </si>
   <si>
+    <t>LFA stripp cutter</t>
+  </si>
+  <si>
     <t>DC Power Supply</t>
   </si>
   <si>
@@ -526,12 +542,15 @@
     <t>MULTICOMP PRO MP750511</t>
   </si>
   <si>
-    <t>Fluroscence Microscope</t>
+    <t>Fluroscence Microscope facility</t>
   </si>
   <si>
     <t>MSX11-C</t>
   </si>
   <si>
+    <t>Bilogical experiments</t>
+  </si>
+  <si>
     <t>Bambu Lab X1-Carbon</t>
   </si>
   <si>
@@ -544,6 +563,69 @@
     <t>ELGI</t>
   </si>
   <si>
+    <t>Blade Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netweb </t>
+  </si>
+  <si>
+    <t>Data Processing</t>
+  </si>
+  <si>
+    <t>Programmable Syring Pump</t>
+  </si>
+  <si>
+    <t>Harvard Apparatus</t>
+  </si>
+  <si>
+    <t>Microfluidics flow based research</t>
+  </si>
+  <si>
+    <t>Patch Clamp Amplifier</t>
+  </si>
+  <si>
+    <t>Spinco Biotech</t>
+  </si>
+  <si>
+    <t>To study ionic currents in living cells, tissue sections, or cell membrane patches</t>
+  </si>
+  <si>
+    <t>Semi-Automated Biochemistry Analyzer</t>
+  </si>
+  <si>
+    <t>Abbott</t>
+  </si>
+  <si>
+    <t>For measuremenyt of various blood componenets</t>
+  </si>
+  <si>
+    <t>Auto Haematology analyser</t>
+  </si>
+  <si>
+    <t>Meril</t>
+  </si>
+  <si>
+    <t>Measures hemoglobin concentration</t>
+  </si>
+  <si>
+    <t>Table top Hemoglobinometer</t>
+  </si>
+  <si>
+    <t>Portable handheld Xray</t>
+  </si>
+  <si>
+    <t>Epsillon</t>
+  </si>
+  <si>
+    <t>Generate Xray images</t>
+  </si>
+  <si>
+    <t>DR imaging system for X-ray</t>
+  </si>
+  <si>
+    <t>Digital copy of XRay images</t>
+  </si>
+  <si>
     <t>Real Time Simulator HIL</t>
   </si>
   <si>
@@ -983,6 +1065,231 @@
   </si>
   <si>
     <t>protein purification</t>
+  </si>
+  <si>
+    <t>Sparkle Filter</t>
+  </si>
+  <si>
+    <t>Packaging Solution, Ghaziabad</t>
+  </si>
+  <si>
+    <t>For filteration of extract</t>
+  </si>
+  <si>
+    <t>CRTDH- CSIR-IHBT</t>
+  </si>
+  <si>
+    <t>Viscometer</t>
+  </si>
+  <si>
+    <t>Brookfield Viscometer</t>
+  </si>
+  <si>
+    <t>To analyze the viscosity</t>
+  </si>
+  <si>
+    <t>Orbital Shaker Incubator</t>
+  </si>
+  <si>
+    <t>Accuma India</t>
+  </si>
+  <si>
+    <t>For processing of extract</t>
+  </si>
+  <si>
+    <t>Adsorption column</t>
+  </si>
+  <si>
+    <t>Andel India Ltd</t>
+  </si>
+  <si>
+    <t>For separation of colour compounds</t>
+  </si>
+  <si>
+    <t>Encapsulation unit</t>
+  </si>
+  <si>
+    <t>Buchi India Pvt Ltd.</t>
+  </si>
+  <si>
+    <t>for encapsulation of colour extract</t>
+  </si>
+  <si>
+    <t>Spinot-Magnetic Stirrer</t>
+  </si>
+  <si>
+    <t>Remi India Ltd</t>
+  </si>
+  <si>
+    <t>For Extraction step</t>
+  </si>
+  <si>
+    <t>Vaccume packaging machine</t>
+  </si>
+  <si>
+    <t>Insta Pack India, Delhi</t>
+  </si>
+  <si>
+    <t>Pacaking of encapsulates</t>
+  </si>
+  <si>
+    <t>Pulveriser wet/dry</t>
+  </si>
+  <si>
+    <t>For size reduction of dried colour powder</t>
+  </si>
+  <si>
+    <t>Rotary evaporator</t>
+  </si>
+  <si>
+    <t>for contentration of colour extract</t>
+  </si>
+  <si>
+    <t>Centifugal seperator</t>
+  </si>
+  <si>
+    <t>Separation of colour extract</t>
+  </si>
+  <si>
+    <t>Circulating Water Bath</t>
+  </si>
+  <si>
+    <t>Fod extraction process step</t>
+  </si>
+  <si>
+    <t>Dehumidifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research Aid </t>
+  </si>
+  <si>
+    <t>Control the humidity of chamber</t>
+  </si>
+  <si>
+    <t>pH Meter</t>
+  </si>
+  <si>
+    <t>EU tech India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To analze the pH </t>
+  </si>
+  <si>
+    <t>Digital Storage Oscilloscope</t>
+  </si>
+  <si>
+    <t>Keysight</t>
+  </si>
+  <si>
+    <t>Signal Analysis</t>
+  </si>
+  <si>
+    <t>CRTDH-CSIR-CEERI</t>
+  </si>
+  <si>
+    <t>Power Analyzer</t>
+  </si>
+  <si>
+    <t>FLUKE</t>
+  </si>
+  <si>
+    <t>Power analysis of AC &amp; DC Signals</t>
+  </si>
+  <si>
+    <t>Current Transducer</t>
+  </si>
+  <si>
+    <t>LEM ULTRA STAB</t>
+  </si>
+  <si>
+    <t>Current Measurement upto 200A (8 Nos)</t>
+  </si>
+  <si>
+    <t>Voltage Probe</t>
+  </si>
+  <si>
+    <t>Current Measurement upto ±1000V (8 Nos)</t>
+  </si>
+  <si>
+    <t>Digital Multimeter</t>
+  </si>
+  <si>
+    <t>Fluke 289</t>
+  </si>
+  <si>
+    <t>Class 1 DMM</t>
+  </si>
+  <si>
+    <t>Solar Array Simulator</t>
+  </si>
+  <si>
+    <t>AMETEK</t>
+  </si>
+  <si>
+    <t>Simulation of solar energy (20 kW)</t>
+  </si>
+  <si>
+    <t>Regenerative Grid Simulator</t>
+  </si>
+  <si>
+    <t>Simulation of Grid (30 kW)</t>
+  </si>
+  <si>
+    <t>Laser Raman Spectroscopy</t>
+  </si>
+  <si>
+    <t>Horiba</t>
+  </si>
+  <si>
+    <t>Sample analysis using Raman Spectroscopy</t>
+  </si>
+  <si>
+    <t>Nuclear Magnetic Resonance (NMR) Spectrometer</t>
+  </si>
+  <si>
+    <t>Nanalysis</t>
+  </si>
+  <si>
+    <t>Sample analysis using NMR Spectroscopy</t>
+  </si>
+  <si>
+    <t>FT-IR Spectroscopy</t>
+  </si>
+  <si>
+    <t>Bruker</t>
+  </si>
+  <si>
+    <t>Sample analysis using FT-IR</t>
+  </si>
+  <si>
+    <t>NIR Spectroscopy</t>
+  </si>
+  <si>
+    <t>Unity Scientific</t>
+  </si>
+  <si>
+    <t>Sample analysis using IR</t>
+  </si>
+  <si>
+    <t>Rapid Protein Analyzer</t>
+  </si>
+  <si>
+    <t>CEM</t>
+  </si>
+  <si>
+    <t>Protein Analysis</t>
+  </si>
+  <si>
+    <t>Rapid Fat Analyzer</t>
+  </si>
+  <si>
+    <t>FAT Analysis</t>
+  </si>
+  <si>
+    <t>Fluorescence and Absorbance Spectrometer</t>
+  </si>
+  <si>
+    <t>Sample analysis using Fluroescence &amp; Absorbance Spectroscopy</t>
   </si>
   <si>
     <t>Brand: OPAL RT 
@@ -1058,7 +1365,463 @@
     <t>Design of pcb For circuit design</t>
   </si>
   <si>
+    <t>SI NO</t>
+  </si>
+  <si>
+    <t>Dioxin Analyzer (GC-MS/MS)</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_1</t>
+  </si>
+  <si>
+    <t>Agilent Technologies</t>
+  </si>
+  <si>
+    <t>Quantification of PCDD/Fs and PCBs (Exclusively for Dioxin and PCB analysis only)</t>
+  </si>
+  <si>
+    <t>DSIR-NIIST-CRTDH</t>
+  </si>
+  <si>
+    <t>Automated dioxin sample preparation systems</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_2</t>
+  </si>
+  <si>
+    <t>Dextech and FMS</t>
+  </si>
+  <si>
+    <t>Sample preparation for PCDD/F and PCB analysis  (Exclusively for Dioxin and PCB analysis only)</t>
+  </si>
+  <si>
+    <t>Accelerated solvent extraction system</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_3</t>
+  </si>
+  <si>
+    <t>Thermofisher Scientific</t>
+  </si>
+  <si>
+    <t>Sample Extraction for PCDD/Fs and PCBs samples  (Exclusively for Dioxin and PCB analysis only)</t>
+  </si>
+  <si>
+    <t>Nitrogen Evaporator/ Concentrator</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_4</t>
+  </si>
+  <si>
+    <t>FMS</t>
+  </si>
+  <si>
+    <t>Nitrogen Generator</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_5</t>
+  </si>
+  <si>
+    <t>Peak Scientific</t>
+  </si>
+  <si>
+    <t>High purity nitrogen gas stream for PCDD/Fs and PCBs sample concentration  (Exclusively for Dioxin and PCB analysis only)</t>
+  </si>
+  <si>
+    <t>Isokinetic dioxin stack sampler</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_6</t>
+  </si>
+  <si>
+    <t>KNJ Engineering</t>
+  </si>
+  <si>
+    <t>PCDD/Fs and PCBs sampling from stack sources (Exclusively for Dioxin and PCB analysis only)</t>
+  </si>
+  <si>
+    <t>Ambient Air PUF sampler</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_7</t>
+  </si>
+  <si>
+    <t>Envirotech, Tosch Environmental</t>
+  </si>
+  <si>
+    <t>PCDD/Fs and PCBs sampling from ambient sources (Exclusively for Dioxin and PCB analysis only)</t>
+  </si>
+  <si>
+    <t>High Temperature Oven</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_8</t>
+  </si>
+  <si>
+    <t>Carbolite</t>
+  </si>
+  <si>
+    <t>Sample handling glassware drying  (Exclusivelly for Dioxin and PCB analysis only)</t>
+  </si>
+  <si>
+    <t>Flue Gas Analyzer</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_9</t>
+  </si>
+  <si>
+    <t>Kane International Ltd.</t>
+  </si>
+  <si>
+    <t>Analysis of gas samples onsite</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_10</t>
+  </si>
+  <si>
+    <t>Buchi</t>
+  </si>
+  <si>
+    <t>Concentration of sample extracts</t>
+  </si>
+  <si>
+    <t>Freezer cum refrigerator</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_11</t>
+  </si>
+  <si>
+    <t>Storage and preservation samples and standards</t>
+  </si>
+  <si>
+    <t>Odour Testing Facility (Onsite monitoring set up and Laboratory based Dynamic Olfactometer)</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_12</t>
+  </si>
+  <si>
+    <t>Scentroid</t>
+  </si>
+  <si>
+    <t>Odour measurement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inductively Coupled Plasma Mass Spectrometer for elemental (metals) analysis        </t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_13</t>
+  </si>
+  <si>
+    <t>Elemental analysis in ayurvedhic drugs and food and feed samples</t>
+  </si>
+  <si>
+    <t>UV- Vis Spectrophotometer</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_14</t>
+  </si>
+  <si>
+    <t>Shimadzu</t>
+  </si>
+  <si>
+    <t>Spectrophotometric analysis of various water quality prameters</t>
+  </si>
+  <si>
+    <t>COD / Kjeldhal digestion</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_15</t>
+  </si>
+  <si>
+    <t>Pelican</t>
+  </si>
+  <si>
+    <t>Water analysis</t>
+  </si>
+  <si>
+    <t>Homogeniser</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_16</t>
+  </si>
+  <si>
+    <t>IKA Germany</t>
+  </si>
+  <si>
+    <t>sample Homogenisation</t>
+  </si>
+  <si>
+    <t>Conductivity meter</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_17</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Ultrapure water system</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_18</t>
+  </si>
+  <si>
+    <t>Thermo</t>
+  </si>
+  <si>
+    <t>Flame photometer</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_19</t>
+  </si>
+  <si>
+    <t>Systronic</t>
+  </si>
+  <si>
+    <t>Sieve shaker with sieves</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_20</t>
+  </si>
+  <si>
+    <t>Retsch</t>
+  </si>
+  <si>
+    <t>Sample preparation</t>
+  </si>
+  <si>
+    <t>Multiparameter water analysis instrument</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_21</t>
+  </si>
+  <si>
+    <t>Aqua Read</t>
+  </si>
+  <si>
+    <t>Ammonia Analyzer</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_22</t>
+  </si>
+  <si>
+    <t>Behr</t>
+  </si>
+  <si>
+    <t>Overhead variable speed stirrers (2)</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_23</t>
+  </si>
+  <si>
+    <t>Heidolph</t>
+  </si>
+  <si>
+    <t>Process development</t>
+  </si>
+  <si>
+    <t>Turbidity measurement system</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_24</t>
+  </si>
+  <si>
+    <t>Oakton</t>
+  </si>
+  <si>
+    <t>Potentiometric auto titrator</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_25</t>
+  </si>
+  <si>
+    <t>Metrohm</t>
+  </si>
+  <si>
+    <t>Micro kjeldahl extraction heater</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_26</t>
+  </si>
+  <si>
+    <t>Cole Parmer</t>
+  </si>
+  <si>
+    <t>Electric bunsen burner with controller</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_27</t>
+  </si>
+  <si>
+    <t>Sample digestion</t>
+  </si>
+  <si>
+    <t>Muffle furnace</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_28</t>
+  </si>
+  <si>
+    <t>Thermo Sysytem</t>
+  </si>
+  <si>
+    <t>VSS analysis</t>
+  </si>
+  <si>
+    <t>DO probe</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_29</t>
+  </si>
+  <si>
+    <t>Eutech</t>
+  </si>
+  <si>
+    <t>Online pH meters</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_30</t>
+  </si>
+  <si>
+    <t>Mettler Toledo</t>
+  </si>
+  <si>
+    <t>Continuous Flow  Auto Analyzer  TKN, Ammonia, Nitrite, Nitrate, Phosphate, Sulfide, Phenol analyser</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_31</t>
+  </si>
+  <si>
+    <t>SKALAR</t>
+  </si>
+  <si>
+    <t>Ion Chromatograph</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_32</t>
+  </si>
+  <si>
+    <t>Anion analysis</t>
+  </si>
+  <si>
+    <t>High temperature tube furnace</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_33</t>
+  </si>
+  <si>
+    <t>NABERTHERM</t>
+  </si>
+  <si>
+    <t>Stereomicroscope</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_34</t>
+  </si>
+  <si>
+    <t>Leica</t>
+  </si>
+  <si>
+    <t>Microbiological analysis</t>
+  </si>
+  <si>
+    <t>Gas production monitor</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_35</t>
+  </si>
+  <si>
+    <t>ANKOM</t>
+  </si>
+  <si>
+    <t>Plastic biodegradability studies</t>
+  </si>
+  <si>
+    <t>Drum mill</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_36</t>
+  </si>
+  <si>
+    <t>Retch GmbH</t>
+  </si>
+  <si>
+    <t>Sample Grinding</t>
+  </si>
+  <si>
+    <t>Drum Type wet gas meter</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_37</t>
+  </si>
+  <si>
+    <t>Ritter</t>
+  </si>
+  <si>
+    <t>Flow measurements</t>
+  </si>
+  <si>
+    <t>Laboratory model cocoa bean breaker</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_38</t>
+  </si>
+  <si>
+    <t>Brook Crompton Industries</t>
+  </si>
+  <si>
+    <t>Cocoa processing</t>
+  </si>
+  <si>
+    <t>scroll compressor</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_39</t>
+  </si>
+  <si>
+    <t>FPZ</t>
+  </si>
+  <si>
+    <t>Dilution gas for olfactometer</t>
+  </si>
+  <si>
+    <t>Berathing air compressor</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_40</t>
+  </si>
+  <si>
+    <t>Bauer Kompressoer</t>
+  </si>
+  <si>
+    <t>Total Organic Carbon Analyzer</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_41</t>
+  </si>
+  <si>
+    <t>Analytica Jena</t>
+  </si>
+  <si>
+    <t>Total organic carbon analysis</t>
+  </si>
+  <si>
+    <t>Microwave Digester for sample digestion</t>
+  </si>
+  <si>
+    <t>NIIST/CRTDH/Ins_42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARS </t>
+  </si>
+  <si>
+    <t>Sample preparation for ICPMS analysis</t>
+  </si>
+  <si>
     <t>Sr. No</t>
+  </si>
+  <si>
+    <t>Instruments</t>
   </si>
   <si>
     <t>Brand / Model</t>
@@ -1077,7 +1840,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1137,6 +1900,16 @@
       <name val="Cambria"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF222222"/>
@@ -1150,10 +1923,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1248,10 +2022,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1265,6 +2040,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1283,13 +2060,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1301,7 +2081,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1310,13 +2090,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1530,40 +2309,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F997"/>
+  <dimension ref="A1:Y995"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C66" sqref="A66:XFD66"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B188" sqref="B188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="2" width="92.33203125" customWidth="1"/>
-    <col min="3" max="3" width="42" customWidth="1"/>
-    <col min="4" max="4" width="51.88671875" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="25" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="114.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="104.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="25" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>339</v>
+        <v>592</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>340</v>
+        <v>593</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>594</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>342</v>
+      <c r="E1" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>596</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1">
@@ -1582,8 +2363,8 @@
       <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>343</v>
+      <c r="F2" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1">
@@ -1602,8 +2383,8 @@
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="24" t="s">
-        <v>343</v>
+      <c r="F3" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1">
@@ -1622,8 +2403,8 @@
       <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="24" t="s">
-        <v>343</v>
+      <c r="F4" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
@@ -1642,8 +2423,8 @@
       <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="24" t="s">
-        <v>343</v>
+      <c r="F5" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.25" customHeight="1">
@@ -1662,8 +2443,8 @@
       <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>343</v>
+      <c r="F6" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" customHeight="1">
@@ -1682,8 +2463,8 @@
       <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>343</v>
+      <c r="F7" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25" customHeight="1">
@@ -1702,8 +2483,8 @@
       <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="24" t="s">
-        <v>343</v>
+      <c r="F8" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.25" customHeight="1">
@@ -1722,8 +2503,8 @@
       <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>343</v>
+      <c r="F9" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.25" customHeight="1">
@@ -1742,8 +2523,8 @@
       <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>343</v>
+      <c r="F10" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.25" customHeight="1">
@@ -1762,8 +2543,8 @@
       <c r="E11" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>343</v>
+      <c r="F11" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="14.25" customHeight="1">
@@ -1782,8 +2563,8 @@
       <c r="E12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>343</v>
+      <c r="F12" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.25" customHeight="1">
@@ -1802,8 +2583,8 @@
       <c r="E13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="24" t="s">
-        <v>343</v>
+      <c r="F13" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.25" customHeight="1">
@@ -1822,8 +2603,8 @@
       <c r="E14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="24" t="s">
-        <v>343</v>
+      <c r="F14" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.25" customHeight="1">
@@ -1842,8 +2623,8 @@
       <c r="E15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F15" s="24" t="s">
-        <v>343</v>
+      <c r="F15" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.25" customHeight="1">
@@ -1862,8 +2643,8 @@
       <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="24" t="s">
-        <v>343</v>
+      <c r="F16" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.25" customHeight="1">
@@ -1882,8 +2663,8 @@
       <c r="E17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="24" t="s">
-        <v>343</v>
+      <c r="F17" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.25" customHeight="1">
@@ -1902,8 +2683,8 @@
       <c r="E18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="24" t="s">
-        <v>343</v>
+      <c r="F18" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.25" customHeight="1">
@@ -1922,8 +2703,8 @@
       <c r="E19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="24" t="s">
-        <v>343</v>
+      <c r="F19" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.25" customHeight="1">
@@ -1942,8 +2723,8 @@
       <c r="E20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F20" s="24" t="s">
-        <v>343</v>
+      <c r="F20" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.25" customHeight="1">
@@ -1962,8 +2743,8 @@
       <c r="E21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="24" t="s">
-        <v>343</v>
+      <c r="F21" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="14.25" customHeight="1">
@@ -1982,8 +2763,8 @@
       <c r="E22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="24" t="s">
-        <v>343</v>
+      <c r="F22" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1">
@@ -2002,8 +2783,8 @@
       <c r="E23" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="24" t="s">
-        <v>343</v>
+      <c r="F23" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1">
@@ -2022,8 +2803,8 @@
       <c r="E24" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="24" t="s">
-        <v>343</v>
+      <c r="F24" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.25" customHeight="1">
@@ -2042,8 +2823,8 @@
       <c r="E25" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F25" s="24" t="s">
-        <v>343</v>
+      <c r="F25" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.25" customHeight="1">
@@ -2062,8 +2843,8 @@
       <c r="E26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="24" t="s">
-        <v>343</v>
+      <c r="F26" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.25" customHeight="1">
@@ -2082,8 +2863,8 @@
       <c r="E27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F27" s="24" t="s">
-        <v>343</v>
+      <c r="F27" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.25" customHeight="1">
@@ -2102,8 +2883,8 @@
       <c r="E28" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="24" t="s">
-        <v>343</v>
+      <c r="F28" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.25" customHeight="1">
@@ -2122,8 +2903,8 @@
       <c r="E29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="24" t="s">
-        <v>343</v>
+      <c r="F29" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.25" customHeight="1">
@@ -2142,8 +2923,8 @@
       <c r="E30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="24" t="s">
-        <v>343</v>
+      <c r="F30" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1">
@@ -2162,8 +2943,8 @@
       <c r="E31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="24" t="s">
-        <v>343</v>
+      <c r="F31" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1">
@@ -2182,8 +2963,8 @@
       <c r="E32" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F32" s="24" t="s">
-        <v>343</v>
+      <c r="F32" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1">
@@ -2202,8 +2983,8 @@
       <c r="E33" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F33" s="24" t="s">
-        <v>343</v>
+      <c r="F33" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="14.25" customHeight="1">
@@ -2222,8 +3003,8 @@
       <c r="E34" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F34" s="24" t="s">
-        <v>343</v>
+      <c r="F34" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1">
@@ -2242,8 +3023,8 @@
       <c r="E35" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F35" s="24" t="s">
-        <v>343</v>
+      <c r="F35" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1">
@@ -2262,8 +3043,8 @@
       <c r="E36" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F36" s="24" t="s">
-        <v>343</v>
+      <c r="F36" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="14.25" customHeight="1">
@@ -2282,8 +3063,8 @@
       <c r="E37" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F37" s="24" t="s">
-        <v>343</v>
+      <c r="F37" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1">
@@ -2302,8 +3083,8 @@
       <c r="E38" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F38" s="24" t="s">
-        <v>343</v>
+      <c r="F38" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="14.25" customHeight="1">
@@ -2322,8 +3103,8 @@
       <c r="E39" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F39" s="24" t="s">
-        <v>343</v>
+      <c r="F39" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1">
@@ -2342,8 +3123,8 @@
       <c r="E40" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F40" s="24" t="s">
-        <v>343</v>
+      <c r="F40" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1">
@@ -2362,8 +3143,8 @@
       <c r="E41" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F41" s="24" t="s">
-        <v>343</v>
+      <c r="F41" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="14.25" customHeight="1">
@@ -2382,8 +3163,8 @@
       <c r="E42" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F42" s="24" t="s">
-        <v>343</v>
+      <c r="F42" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1">
@@ -2402,8 +3183,8 @@
       <c r="E43" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F43" s="24" t="s">
-        <v>343</v>
+      <c r="F43" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="14.25" customHeight="1">
@@ -2422,8 +3203,8 @@
       <c r="E44" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F44" s="24" t="s">
-        <v>343</v>
+      <c r="F44" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="14.25" customHeight="1">
@@ -2442,8 +3223,8 @@
       <c r="E45" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F45" s="24" t="s">
-        <v>343</v>
+      <c r="F45" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="14.25" customHeight="1">
@@ -2462,8 +3243,8 @@
       <c r="E46" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F46" s="24" t="s">
-        <v>343</v>
+      <c r="F46" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="14.25" customHeight="1">
@@ -2482,8 +3263,8 @@
       <c r="E47" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F47" s="24" t="s">
-        <v>343</v>
+      <c r="F47" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="14.25" customHeight="1">
@@ -2502,8 +3283,8 @@
       <c r="E48" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F48" s="24" t="s">
-        <v>343</v>
+      <c r="F48" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="14.25" customHeight="1">
@@ -2522,8 +3303,8 @@
       <c r="E49" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F49" s="24" t="s">
-        <v>343</v>
+      <c r="F49" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="14.25" customHeight="1">
@@ -2542,8 +3323,8 @@
       <c r="E50" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F50" s="24" t="s">
-        <v>343</v>
+      <c r="F50" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="14.25" customHeight="1">
@@ -2562,8 +3343,8 @@
       <c r="E51" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F51" s="24" t="s">
-        <v>343</v>
+      <c r="F51" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1">
@@ -2582,52 +3363,54 @@
       <c r="E52" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F52" s="24" t="s">
-        <v>343</v>
+      <c r="F52" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1">
       <c r="A53" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F53" s="24" t="s">
-        <v>343</v>
+      <c r="F53" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="14.25" customHeight="1">
       <c r="A54" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>33</v>
+        <v>148</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>149</v>
+      </c>
       <c r="E54" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F54" s="24" t="s">
-        <v>343</v>
+      <c r="F54" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1">
       <c r="A55" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>149</v>
+        <v>33</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>150</v>
@@ -2638,1021 +3421,1194 @@
       <c r="E55" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F55" s="24" t="s">
-        <v>343</v>
+      <c r="F55" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="14.25" customHeight="1">
       <c r="A56" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D56" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="E56" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F56" s="24" t="s">
-        <v>343</v>
+      <c r="F56" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="14.25" customHeight="1">
       <c r="A57" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>153</v>
+        <v>73</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D57" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>151</v>
+      </c>
       <c r="E57" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F57" s="24" t="s">
-        <v>343</v>
+      <c r="F57" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="14.25" customHeight="1">
       <c r="A58" s="2">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D58" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="E58" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F58" s="24" t="s">
-        <v>343</v>
+      <c r="F58" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="14.25" customHeight="1">
       <c r="A59" s="2">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F59" s="24" t="s">
-        <v>343</v>
+      <c r="F59" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="14.25" customHeight="1">
       <c r="A60" s="2">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F60" s="24" t="s">
-        <v>343</v>
+      <c r="F60" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="14.25" customHeight="1">
       <c r="A61" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F61" s="24" t="s">
-        <v>343</v>
+      <c r="F61" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="14.25" customHeight="1">
       <c r="A62" s="2">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F62" s="24" t="s">
-        <v>343</v>
+      <c r="F62" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="14.25" customHeight="1">
       <c r="A63" s="2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F63" s="24" t="s">
-        <v>343</v>
+      <c r="F63" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="14.25" customHeight="1">
       <c r="A64" s="2">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D64" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="E64" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F64" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="14.25" customHeight="1">
+      <c r="F64" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25" ht="14.25" customHeight="1">
       <c r="A65" s="2">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>42</v>
+        <v>171</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F65" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="14.4">
+      <c r="F65" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25" ht="14.25" customHeight="1">
       <c r="A66" s="2">
-        <v>66</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D66" s="5"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="E66" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F66" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="14.25" customHeight="1">
+      <c r="F66" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25" ht="14.4">
       <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F67" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D67" s="7" t="s">
+      <c r="B68" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="7"/>
+    </row>
+    <row r="69" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F69" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+    </row>
+    <row r="70" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F70" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="7"/>
+      <c r="Y70" s="7"/>
+    </row>
+    <row r="71" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F71" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
+    </row>
+    <row r="72" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F72" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
+      <c r="Y72" s="7"/>
+    </row>
+    <row r="73" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F73" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+    </row>
+    <row r="74" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F74" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="7"/>
+      <c r="Y74" s="7"/>
+    </row>
+    <row r="75" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F75" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+    </row>
+    <row r="76" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+    </row>
+    <row r="77" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F77" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F78" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="79" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F79" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="80" spans="1:25" ht="14.25" customHeight="1">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F80" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F81" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F82" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F83" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F84" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F85" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F86" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F87" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D88" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F88" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F89" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F67" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A68" s="2">
-        <v>68</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F68" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A69" s="2">
-        <v>69</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F69" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A70" s="2">
-        <v>70</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F70" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A71" s="2">
-        <v>71</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F71" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A72" s="2">
-        <v>72</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E72" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F72" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A73" s="2">
-        <v>73</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F73" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A74" s="2">
-        <v>74</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F74" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A75" s="2">
-        <v>75</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F75" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A76" s="2">
-        <v>76</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F76" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A77" s="2">
-        <v>77</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F77" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A78" s="2">
-        <v>78</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F78" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A79" s="2">
-        <v>79</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="F79" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A80" s="5">
-        <v>80</v>
-      </c>
-      <c r="B80" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="F80" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A81" s="5">
-        <v>81</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F81" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A82" s="5">
-        <v>82</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F82" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A83" s="5">
-        <v>83</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F83" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A84" s="5">
-        <v>84</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D84" s="5" t="s">
+      <c r="E90" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="F90" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F91" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F92" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F93" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E84" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F84" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A85" s="5">
-        <v>85</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="E85" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F85" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A86" s="5">
-        <v>86</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F86" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A87" s="5">
-        <v>87</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="E87" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F87" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A88" s="5">
-        <v>88</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F88" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A89" s="5">
-        <v>89</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="E89" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F89" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A90" s="5">
-        <v>90</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E90" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F90" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A91" s="5">
-        <v>91</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C91" s="5" t="s">
+      <c r="E94" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E91" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="F91" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A92" s="5">
-        <v>92</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F92" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A93" s="5">
-        <v>93</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F93" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A94" s="5">
+      <c r="F94" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A95" s="2">
         <v>94</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B95" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C95" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D95" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E94" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F94" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A95" s="5">
+      <c r="E95" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F95" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A96" s="2">
         <v>95</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B96" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C96" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D96" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E95" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F95" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A96" s="5">
+      <c r="E96" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F96" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A97" s="2">
         <v>96</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B97" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C97" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D97" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="E96" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F96" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A97" s="5">
+      <c r="E97" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F97" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A98" s="2">
         <v>97</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B98" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C98" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D98" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="E97" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F97" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A98" s="5">
+      <c r="E98" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F98" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A99" s="2">
         <v>98</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B99" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C98" s="5" t="s">
+      <c r="C99" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D99" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="E98" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F98" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A99" s="5">
+      <c r="E99" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F99" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A100" s="2">
         <v>99</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B100" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C100" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D100" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="E99" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F99" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A100" s="5">
+      <c r="E100" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F100" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A101" s="2">
         <v>100</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B101" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C101" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D101" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="E100" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F100" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A101" s="5">
+      <c r="E101" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="F101" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A102" s="2">
         <v>101</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B102" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C102" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D102" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="E101" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F101" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A102" s="5">
+      <c r="E102" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F102" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A103" s="2">
         <v>102</v>
       </c>
-      <c r="B102" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C102" s="5" t="s">
+      <c r="B103" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="C103" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="E102" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F102" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A103" s="5">
+      <c r="D103" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F103" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A104" s="2">
         <v>103</v>
       </c>
-      <c r="B103" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C103" s="5" t="s">
+      <c r="B104" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="C104" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="E103" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F103" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A104" s="5">
+      <c r="D104" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F104" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A105" s="2">
         <v>104</v>
       </c>
-      <c r="B104" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="D104" s="5" t="s">
+      <c r="B105" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E104" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F104" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A105" s="5">
+      <c r="C105" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F105" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A106" s="2">
         <v>105</v>
       </c>
-      <c r="B105" s="5" t="s">
-        <v>293</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="D105" s="5" t="s">
+      <c r="B106" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E105" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F105" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A106" s="5">
+      <c r="C106" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F106" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A107" s="2">
         <v>106</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F106" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A107" s="5">
-        <v>107</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>298</v>
@@ -3664,15 +4620,15 @@
         <v>300</v>
       </c>
       <c r="E107" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F107" s="24" t="s">
-        <v>343</v>
+        <v>254</v>
+      </c>
+      <c r="F107" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A108" s="5">
-        <v>108</v>
+      <c r="A108" s="2">
+        <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>301</v>
@@ -3684,15 +4640,15 @@
         <v>303</v>
       </c>
       <c r="E108" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F108" s="24" t="s">
-        <v>343</v>
+        <v>254</v>
+      </c>
+      <c r="F108" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A109" s="5">
-        <v>109</v>
+      <c r="A109" s="2">
+        <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>304</v>
@@ -3704,15 +4660,15 @@
         <v>306</v>
       </c>
       <c r="E109" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F109" s="24" t="s">
-        <v>343</v>
+        <v>254</v>
+      </c>
+      <c r="F109" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A110" s="5">
-        <v>110</v>
+      <c r="A110" s="2">
+        <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>307</v>
@@ -3724,15 +4680,15 @@
         <v>309</v>
       </c>
       <c r="E110" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F110" s="24" t="s">
-        <v>343</v>
+        <v>254</v>
+      </c>
+      <c r="F110" s="29" t="s">
+        <v>597</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A111" s="5">
-        <v>111</v>
+      <c r="A111" s="2">
+        <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>310</v>
@@ -3744,147 +4700,1667 @@
         <v>312</v>
       </c>
       <c r="E111" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F111" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="F111" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A112" s="2">
+        <v>111</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F112" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A113" s="2">
+        <v>112</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F113" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A114" s="2">
+        <v>113</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F114" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A115" s="2">
+        <v>114</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F115" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A116" s="2">
+        <v>115</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F116" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A117" s="2">
+        <v>116</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F117" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F118" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A119" s="2">
+        <v>118</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F119" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A120" s="2">
+        <v>119</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F120" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A121" s="2">
+        <v>120</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F121" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A122" s="2">
+        <v>121</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F122" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A123" s="2">
+        <v>122</v>
+      </c>
+      <c r="B123" s="13" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A112" s="5">
-        <v>112</v>
-      </c>
-      <c r="B112" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="C112" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F112" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A113" s="5">
-        <v>113</v>
-      </c>
-      <c r="B113" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="E113" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="F113" s="24" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="115" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="116" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="117" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="118" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="119" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="120" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="121" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="122" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="123" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="124" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="125" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="126" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="127" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="128" spans="1:6" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
+      <c r="C123" s="14" t="s">
+        <v>344</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F123" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A124" s="2">
+        <v>123</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F124" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A125" s="2">
+        <v>124</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F125" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A126" s="2">
+        <v>125</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F126" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A127" s="2">
+        <v>126</v>
+      </c>
+      <c r="B127" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F127" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A128" s="2">
+        <v>127</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F128" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A129" s="2">
+        <v>128</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F129" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A130" s="2">
+        <v>129</v>
+      </c>
+      <c r="B130" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F130" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A131" s="2">
+        <v>130</v>
+      </c>
+      <c r="B131" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F131" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A132" s="2">
+        <v>131</v>
+      </c>
+      <c r="B132" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F132" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A133" s="2">
+        <v>132</v>
+      </c>
+      <c r="B133" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F133" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A134" s="2">
+        <v>133</v>
+      </c>
+      <c r="B134" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F134" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A135" s="2">
+        <v>134</v>
+      </c>
+      <c r="B135" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F135" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A136" s="2">
+        <v>135</v>
+      </c>
+      <c r="B136" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F136" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A137" s="2">
+        <v>136</v>
+      </c>
+      <c r="B137" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F137" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A138" s="2">
+        <v>137</v>
+      </c>
+      <c r="B138" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F138" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A139" s="2">
+        <v>138</v>
+      </c>
+      <c r="B139" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="D139" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F139" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="14.4">
+      <c r="A140" s="2">
+        <v>139</v>
+      </c>
+      <c r="B140" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F140" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A141" s="2">
+        <v>140</v>
+      </c>
+      <c r="B141" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F141" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A142" s="2">
+        <v>141</v>
+      </c>
+      <c r="B142" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F142" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A143" s="2">
+        <v>142</v>
+      </c>
+      <c r="B143" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D143" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F143" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A144" s="2">
+        <v>143</v>
+      </c>
+      <c r="B144" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D144" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F144" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A145" s="2">
+        <v>144</v>
+      </c>
+      <c r="B145" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="D145" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F145" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A146" s="2">
+        <v>145</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="C146" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F146" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A147" s="2">
+        <v>146</v>
+      </c>
+      <c r="B147" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="C147" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="D147" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="E147" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F147" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A148" s="2">
+        <v>147</v>
+      </c>
+      <c r="B148" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="D148" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F148" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A149" s="2">
+        <v>148</v>
+      </c>
+      <c r="B149" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="E149" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F149" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A150" s="2">
+        <v>149</v>
+      </c>
+      <c r="B150" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F150" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A151" s="2">
+        <v>150</v>
+      </c>
+      <c r="B151" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="D151" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="F151" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A152" s="2">
+        <v>151</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F152" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A153" s="2">
+        <v>152</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F153" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A154" s="2">
+        <v>153</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F154" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A155" s="2">
+        <v>154</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F155" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A156" s="2">
+        <v>155</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F156" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A157" s="2">
+        <v>156</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F157" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A158" s="2">
+        <v>157</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F158" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A159" s="2">
+        <v>158</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F159" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A160" s="2">
+        <v>159</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F160" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A161" s="2">
+        <v>160</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F161" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A162" s="2">
+        <v>161</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F162" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A163" s="2">
+        <v>162</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F163" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A164" s="2">
+        <v>163</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F164" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A165" s="2">
+        <v>164</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F165" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A166" s="2">
+        <v>165</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F166" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A167" s="2">
+        <v>166</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F167" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A168" s="2">
+        <v>167</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F168" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A169" s="2">
+        <v>168</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F169" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A170" s="2">
+        <v>169</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F170" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A171" s="2">
+        <v>170</v>
+      </c>
+      <c r="B171" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="C171" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="D171" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="E171" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F171" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A172" s="2">
+        <v>171</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="C172" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="D172" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E172" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F172" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A173" s="2">
+        <v>172</v>
+      </c>
+      <c r="B173" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C173" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="D173" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E173" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F173" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A174" s="2">
+        <v>173</v>
+      </c>
+      <c r="B174" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="C174" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="D174" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="E174" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F174" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A175" s="2">
+        <v>174</v>
+      </c>
+      <c r="B175" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="C175" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="D175" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E175" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F175" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A176" s="2">
+        <v>175</v>
+      </c>
+      <c r="B176" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="C176" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F176" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A177" s="2">
+        <v>176</v>
+      </c>
+      <c r="B177" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="C177" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F177" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A178" s="2">
+        <v>177</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F178" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A179" s="2">
+        <v>178</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F179" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A180" s="2">
+        <v>179</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E180" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F180" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A181" s="2">
+        <v>180</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F181" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A182" s="2">
+        <v>181</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F182" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A183" s="2">
+        <v>182</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F183" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A184" s="2">
+        <v>183</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F184" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A185" s="2">
+        <v>184</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F185" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A186" s="2">
+        <v>185</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="E186" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F186" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A187" s="2">
+        <v>186</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F187" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A188" s="2">
+        <v>187</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F188" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A189" s="2">
+        <v>188</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F189" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A190" s="2">
+        <v>189</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F190" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A191" s="2">
+        <v>190</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F191" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A192" s="2">
+        <v>191</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F192" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="14.25" customHeight="1">
+      <c r="A193" s="2">
+        <v>192</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="F193" s="29" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="195" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="196" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="197" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="198" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="199" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="200" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="201" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="202" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="203" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="204" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="205" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="206" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="207" spans="1:6" ht="14.25" customHeight="1"/>
+    <row r="208" spans="1:6" ht="14.25" customHeight="1"/>
     <row r="209" ht="14.25" customHeight="1"/>
     <row r="210" ht="14.25" customHeight="1"/>
     <row r="211" ht="14.25" customHeight="1"/>
@@ -4672,11 +7148,9 @@
     <row r="993" ht="14.25" customHeight="1"/>
     <row r="994" ht="14.25" customHeight="1"/>
     <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -4719,185 +7193,1068 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="B2" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>320</v>
+      <c r="B2" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>421</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="B3" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>180</v>
+      <c r="B3" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>423</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="B4" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>324</v>
+      <c r="B4" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>425</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="B5" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>188</v>
+      <c r="B5" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>427</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="B6" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>188</v>
+      <c r="B6" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>428</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="B7" s="13" t="s">
-        <v>192</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>195</v>
+      <c r="B7" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>429</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="B8" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>329</v>
+      <c r="B8" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>430</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="B9" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>329</v>
+      <c r="B9" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="B10" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>329</v>
+      <c r="B10" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="E10" s="26" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>332</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>333</v>
+      <c r="B11" s="22" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>333</v>
+      <c r="B12" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>336</v>
+      <c r="B13" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>338</v>
+      <c r="B14" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>439</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>440</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:F43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="2" max="2" width="22.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="26.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>442</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>459</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>465</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>466</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>470</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>472</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>474</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>475</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>482</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>484</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>488</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>499</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>504</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>508</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>514</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>518</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>527</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>530</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>535</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>537</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>548</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>549</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>550</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>498</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>551</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>555</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>560</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>573</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>576</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>577</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>578</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>581</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>582</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>590</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>446</v>
       </c>
     </row>
   </sheetData>
